--- a/src/test/resources/NS4S/2200 HKST.xlsx
+++ b/src/test/resources/NS4S/2200 HKST.xlsx
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,13 +455,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="2">
-        <v>3.06</v>
+        <v>4.29</v>
       </c>
       <c r="F2" s="2">
-        <v>5.41</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>2.93</v>
+        <v>4.66</v>
       </c>
       <c r="E3" s="2">
-        <v>5.88</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>4.1500000000000004</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>3.91</v>
+        <v>5.15</v>
       </c>
       <c r="E4" s="2">
-        <v>5.28</v>
+        <v>3.56</v>
       </c>
       <c r="F4" s="2">
-        <v>4.3499999999999996</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,15 +498,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>3.686666666666667</v>
+        <v>4.3966666666666665</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>4.7399999999999993</v>
+        <v>3.9966666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.6366666666666667</v>
+        <v>4.0200000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,13 +517,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>5.82</v>
+        <v>3.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="F6" s="2">
-        <v>5.71</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>3.22</v>
+        <v>2.77</v>
       </c>
       <c r="E7" s="2">
-        <v>3.32</v>
+        <v>4.74</v>
       </c>
       <c r="F7" s="2">
-        <v>3.2</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="E8" s="2">
-        <v>3.73</v>
+        <v>5.24</v>
       </c>
       <c r="F8" s="2">
-        <v>4.47</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,15 +560,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>4.1466666666666674</v>
+        <v>3.2533333333333339</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>3.6533333333333338</v>
+        <v>4.5533333333333337</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.46</v>
+        <v>4.6366666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>3.84</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E10" s="2">
-        <v>5.47</v>
+        <v>2.74</v>
       </c>
       <c r="F10" s="2">
-        <v>5.67</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E11" s="2">
-        <v>2.71</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F11" s="2">
-        <v>4.42</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,13 +610,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>5.54</v>
+        <v>2.8</v>
       </c>
       <c r="E12" s="2">
-        <v>4.99</v>
+        <v>5.7</v>
       </c>
       <c r="F12" s="2">
-        <v>4.46</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,15 +625,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.126666666666666</v>
+        <v>3.4766666666666666</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3899999999999997</v>
+        <v>4.2933333333333339</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.8500000000000005</v>
+        <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>2.99</v>
+        <v>5.45</v>
       </c>
       <c r="E14" s="2">
-        <v>5.29</v>
+        <v>5.56</v>
       </c>
       <c r="F14" s="2">
-        <v>4.05</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.43</v>
       </c>
       <c r="E15" s="2">
-        <v>4.3</v>
+        <v>4.91</v>
       </c>
       <c r="F15" s="2">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>4.1399999999999997</v>
+        <v>3.51</v>
       </c>
       <c r="E16" s="2">
-        <v>3.92</v>
+        <v>5.48</v>
       </c>
       <c r="F16" s="2">
-        <v>5.83</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,15 +687,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>3.73</v>
+        <v>4.13</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.503333333333333</v>
+        <v>5.3166666666666664</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.22</v>
+        <v>4.1566666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>5.67</v>
       </c>
       <c r="E18" s="2">
-        <v>3.41</v>
+        <v>5.65</v>
       </c>
       <c r="F18" s="2">
-        <v>2.86</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>3.53</v>
+        <v>3.49</v>
       </c>
       <c r="E19" s="2">
-        <v>3.49</v>
+        <v>5.7</v>
       </c>
       <c r="F19" s="2">
-        <v>4.05</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>3.45</v>
+        <v>5.12</v>
       </c>
       <c r="E20" s="2">
-        <v>3.72</v>
+        <v>3.2</v>
       </c>
       <c r="F20" s="2">
-        <v>4.22</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,15 +752,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.2166666666666659</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>3.5400000000000005</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>3.7099999999999995</v>
+        <v>5.4766666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>3.46</v>
+        <v>5.58</v>
       </c>
       <c r="E22" s="2">
-        <v>4.41</v>
+        <v>5.42</v>
       </c>
       <c r="F22" s="2">
-        <v>4.7699999999999996</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E23" s="2">
         <v>2.6</v>
       </c>
-      <c r="E23" s="2">
-        <v>3.24</v>
-      </c>
       <c r="F23" s="2">
-        <v>5.47</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>3.62</v>
+        <v>4.66</v>
       </c>
       <c r="E24" s="2">
-        <v>3.13</v>
+        <v>5.63</v>
       </c>
       <c r="F24" s="2">
-        <v>5.15</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,15 +814,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>3.2266666666666666</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>3.5933333333333337</v>
+        <v>4.55</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>5.13</v>
+        <v>3.3633333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>5.34</v>
+        <v>5.13</v>
       </c>
       <c r="E26" s="2">
-        <v>3.61</v>
+        <v>4.55</v>
       </c>
       <c r="F26" s="2">
-        <v>4.1100000000000003</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="E27" s="2">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="F27" s="2">
-        <v>5.34</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="E28" s="2">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="F28" s="2">
-        <v>5.73</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,15 +879,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.97</v>
+        <v>4.04</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.043333333333333</v>
+        <v>4.12</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>5.0599999999999996</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="E30" s="2">
-        <v>4.92</v>
+        <v>3.18</v>
       </c>
       <c r="F30" s="2">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>3.13</v>
+        <v>4.79</v>
       </c>
       <c r="E31" s="2">
-        <v>3.79</v>
+        <v>3.44</v>
       </c>
       <c r="F31" s="2">
-        <v>4.0599999999999996</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,13 +926,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>5.94</v>
+        <v>3.6</v>
       </c>
       <c r="E32" s="2">
-        <v>3.07</v>
+        <v>4.37</v>
       </c>
       <c r="F32" s="2">
-        <v>4.8</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -941,15 +941,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.5566666666666666</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>3.9266666666666672</v>
+        <v>3.6633333333333336</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>3.8666666666666667</v>
+        <v>4.46</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2200 HKST.xlsx
+++ b/src/test/resources/NS4S/2200 HKST.xlsx
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,13 +455,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,15 +498,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,13 +517,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,15 +560,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E10" s="2">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="F10" s="2">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>4.4400000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="F11" s="2">
-        <v>3.83</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,13 +610,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>3.31</v>
       </c>
       <c r="F12" s="2">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,15 +625,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>3.4766666666666666</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.2933333333333339</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>3.5833333333333335</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="E14" s="2">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="2">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="E15" s="2">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="2">
-        <v>2.98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>3.51</v>
+        <v>5.74</v>
       </c>
       <c r="E16" s="2">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="F16" s="2">
-        <v>5.71</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,15 +687,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.13</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>5.3166666666666664</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.1566666666666663</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5.67</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>5.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>3.49</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7</v>
+        <v>2.85</v>
       </c>
       <c r="F19" s="2">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>5.12</v>
+        <v>3.66</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="F20" s="2">
-        <v>4.87</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,15 +752,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.7600000000000007</v>
+        <v>4.2766666666666664</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>4.8500000000000005</v>
+        <v>3.6300000000000003</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.4766666666666666</v>
+        <v>5.5799999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>5.58</v>
+        <v>2.85</v>
       </c>
       <c r="E22" s="2">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="F22" s="2">
-        <v>2.92</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9400000000000004</v>
+        <v>2.83</v>
       </c>
       <c r="E23" s="2">
-        <v>2.6</v>
+        <v>5.01</v>
       </c>
       <c r="F23" s="2">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.66</v>
+        <v>4.95</v>
       </c>
       <c r="E24" s="2">
-        <v>5.63</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,15 +814,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>5.0599999999999996</v>
+        <v>3.543333333333333</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.55</v>
+        <v>4.7733333333333334</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>3.3633333333333333</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>5.13</v>
+        <v>4.99</v>
       </c>
       <c r="E26" s="2">
-        <v>4.55</v>
+        <v>5.23</v>
       </c>
       <c r="F26" s="2">
-        <v>4.49</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>3.68</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E27" s="2">
-        <v>2.97</v>
+        <v>5.07</v>
       </c>
       <c r="F27" s="2">
-        <v>5.53</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.31</v>
+        <v>3.89</v>
       </c>
       <c r="E28" s="2">
-        <v>4.84</v>
+        <v>3.45</v>
       </c>
       <c r="F28" s="2">
-        <v>5.48</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,15 +879,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.04</v>
+        <v>4.5933333333333337</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.12</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>5.166666666666667</v>
+        <v>3.9499999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.18</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E30" s="2">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="F30" s="2">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>4.79</v>
+        <v>5.17</v>
       </c>
       <c r="E31" s="2">
-        <v>3.44</v>
+        <v>3.92</v>
       </c>
       <c r="F31" s="2">
-        <v>5.28</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,13 +926,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="E32" s="2">
-        <v>4.37</v>
+        <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>5.45</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -941,15 +941,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.1899999999999995</v>
+        <v>4.59</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>3.6633333333333336</v>
+        <v>4.0166666666666666</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.46</v>
+        <v>4.0466666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2200 HKST.xlsx
+++ b/src/test/resources/NS4S/2200 HKST.xlsx
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H46"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,13 +455,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,15 +498,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="E10" s="2">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="F10" s="2">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E11" s="2">
-        <v>5.55</v>
+        <v>5.19</v>
       </c>
       <c r="F11" s="2">
-        <v>5.57</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,13 +610,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>3.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="F12" s="2">
-        <v>4.92</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,15 +625,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.4633333333333338</v>
+        <v>4.79</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3666666666666663</v>
+        <v>4.4233333333333338</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.42</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="F14" s="2">
-        <v>3.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.08</v>
+        <v>5.71</v>
       </c>
       <c r="E15" s="2">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>5.74</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="2">
-        <v>5.82</v>
+        <v>2.89</v>
       </c>
       <c r="F16" s="2">
-        <v>5.07</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,15 +687,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.8133333333333335</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.4333333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.96</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.97</v>
       </c>
       <c r="E18" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.66</v>
       </c>
       <c r="F18" s="2">
-        <v>5.85</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>4.3099999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="E19" s="2">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="F19" s="2">
-        <v>5.69</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>3.66</v>
+        <v>2.72</v>
       </c>
       <c r="E20" s="2">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="2">
-        <v>5.2</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,15 +752,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.2766666666666664</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>3.6300000000000003</v>
+        <v>5.2366666666666672</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.5799999999999992</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>2.85</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="2">
-        <v>4.01</v>
+        <v>4.21</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0199999999999996</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5.01</v>
+        <v>3.79</v>
       </c>
       <c r="F23" s="2">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.95</v>
+        <v>3.44</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3</v>
+        <v>4.79</v>
       </c>
       <c r="F24" s="2">
-        <v>4.59</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,15 +814,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>3.543333333333333</v>
+        <v>3.8966666666666665</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.7733333333333334</v>
+        <v>4.2633333333333328</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>4.5599999999999996</v>
+        <v>3.7633333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>4.99</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>5.23</v>
+        <v>3.28</v>
       </c>
       <c r="F26" s="2">
-        <v>3.32</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>4.9000000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="E27" s="2">
-        <v>5.07</v>
+        <v>3.99</v>
       </c>
       <c r="F27" s="2">
-        <v>3.61</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="E28" s="2">
-        <v>3.45</v>
+        <v>5.05</v>
       </c>
       <c r="F28" s="2">
-        <v>4.92</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,15 +879,15 @@
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(D26:D28)</f>
-        <v>4.5933333333333337</v>
+        <v>3.69</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(E26:E28)</f>
-        <v>4.583333333333333</v>
+        <v>4.1066666666666665</v>
       </c>
       <c r="F29" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>3.9499999999999997</v>
+        <v>3.8933333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2">
-        <v>4.2699999999999996</v>
+        <v>5.33</v>
       </c>
       <c r="E30" s="2">
-        <v>3.01</v>
+        <v>5.66</v>
       </c>
       <c r="F30" s="2">
-        <v>3.48</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>5.17</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E31" s="2">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F31" s="2">
-        <v>4.6900000000000004</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,13 +926,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>4.33</v>
+        <v>5.34</v>
       </c>
       <c r="E32" s="2">
         <v>5.12</v>
       </c>
       <c r="F32" s="2">
-        <v>3.97</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -941,15 +941,15 @@
       </c>
       <c r="D33" s="1">
         <f>AVERAGE(D30:D32)</f>
-        <v>4.59</v>
+        <v>5.16</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(E30:E32)</f>
-        <v>4.0166666666666666</v>
+        <v>4.9066666666666663</v>
       </c>
       <c r="F33" s="1">
         <f>AVERAGE(F30:F32)</f>
-        <v>4.0466666666666669</v>
+        <v>5.78</v>
       </c>
     </row>
   </sheetData>
